--- a/AIPRM.xlsx
+++ b/AIPRM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengli/My_Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengli/My_Documents/alpaca/Luotuo-Silk-Magic-Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C426A4-B3C6-B040-832F-2DA1D79E14F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CBEE30-8F42-624D-942F-87851EFC681C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32700" yWindow="2520" windowWidth="28240" windowHeight="17440" xr2:uid="{31ABCFC0-1776-0549-A6C0-C1928684A1F1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>SOE write</t>
   </si>
@@ -1032,6 +1032,14 @@
   </si>
   <si>
     <t>林黛玉倒拔垂杨柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPTres1Ch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPTres2Ch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1413,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FE4676-C4F5-ED43-B576-FC69AEA94C0D}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1446,10 +1454,10 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>

--- a/AIPRM.xlsx
+++ b/AIPRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengli/My_Documents/alpaca/Luotuo-Silk-Magic-Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CBEE30-8F42-624D-942F-87851EFC681C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A382AD98-26C5-5C40-9BF9-12D7906EA929}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32700" yWindow="2520" windowWidth="28240" windowHeight="17440" xr2:uid="{31ABCFC0-1776-0549-A6C0-C1928684A1F1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>SOE write</t>
   </si>
@@ -1040,6 +1040,10 @@
   </si>
   <si>
     <t>GPTres2Ch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOE.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1422,7 +1426,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1518,6 +1522,9 @@
       <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="409.6">
       <c r="A3" t="s">

--- a/AIPRM.xlsx
+++ b/AIPRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengli/My_Documents/alpaca/Luotuo-Silk-Magic-Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A382AD98-26C5-5C40-9BF9-12D7906EA929}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950B6EE9-ACDB-9C4E-805A-B1AB23143E12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32700" yWindow="2520" windowWidth="28240" windowHeight="17440" xr2:uid="{31ABCFC0-1776-0549-A6C0-C1928684A1F1}"/>
+    <workbookView xWindow="-32640" yWindow="1140" windowWidth="30900" windowHeight="19620" xr2:uid="{31ABCFC0-1776-0549-A6C0-C1928684A1F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>SOE write</t>
-  </si>
-  <si>
-    <t>SOE写作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>林黛玉倒拔垂杨柳：一个在中国文化中的象征
@@ -508,10 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>youtube script creator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>视频脚本编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1044,6 +1036,30 @@
   </si>
   <si>
     <t>SOE.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒拔垂杨柳的林黛玉在林间漫步。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗战胜佛-诸葛亮， 卧龙先生-林黛玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁智深三打白骨精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空七擒孟获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Youtube script creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高质量SOE写作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1425,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FE4676-C4F5-ED43-B576-FC69AEA94C0D}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1437,49 +1453,49 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>108</v>
-      </c>
       <c r="I1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
       <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
       <c r="N1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="409.6">
@@ -1487,316 +1503,328 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="409.6">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="409.6">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="409.6">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
+      <c r="C5" t="s">
+        <v>111</v>
       </c>
       <c r="D5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="N5" t="s">
         <v>45</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="409.6">
       <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="I6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
         <v>51</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="409.6">
       <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="N7" t="s">
         <v>57</v>
-      </c>
-      <c r="N7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="409.6">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="H8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="409.6">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="409.6">
       <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="N10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" t="s">
         <v>78</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="409.6">
       <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
       <c r="E11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="J11" s="1"/>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="404">
       <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="356">
       <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
         <v>92</v>
       </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H13" t="s">
+      <c r="N13" t="s">
         <v>94</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="409.6">
       <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="G14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="N14" t="s">
         <v>100</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N14" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/AIPRM.xlsx
+++ b/AIPRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengli/My_Documents/alpaca/Luotuo-Silk-Magic-Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950B6EE9-ACDB-9C4E-805A-B1AB23143E12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB5C2DE-2BA1-BE41-810A-3C442E237AA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32640" yWindow="1140" windowWidth="30900" windowHeight="19620" xr2:uid="{31ABCFC0-1776-0549-A6C0-C1928684A1F1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
   <si>
     <t>SOE write</t>
   </si>
@@ -570,10 +570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>以我们为主语的SEO写作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我们的题目是“王母娘娘草船借箭”，这是一则中国古代神话故事，被广泛流传并且有着深厚的文化底蕴。在这篇文章中，我们将讨论这个故事的来龙去脉，同时探究这个故事所蕴含的人生哲理。
 首先，让我们来讲讲这个故事的情节。故事讲述了战国时期，秦国攻打赵国，想要通过借箭来增强自己的实力。于是，秦王派使者前往天宫请求王母娘娘借给他们三千支神箭。王母答应了秦王的请求，但是要求秦王在三天内提供一艘草船。
 秦王得知了条件后，心中很是犯愁，因为秦国并没有这样的草船。这时，智囊孙膑出谋划策，他让人在草船上堆上稻草，然后在稻草上架起箭靶。第二天早上，王母娘娘看到了这艘草船，便借给秦王三千支神箭。秦军在箭的帮助下击败了赵军，取得了战争的胜利。
@@ -960,10 +956,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标题党</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>您的任务是帮我为以下的业务创建30篇本地SEO优化的社交媒体帖子。每篇帖子应至少包含五个在当地SEO中对该业务类型很重要的关键词，自然地写成句子。每个帖子应至少有5个句子。帖子不应提及折扣或新产品。我上面说的一切都很重要，必须遵循。请假装你是一位本地SEO专家。请将每个帖子放在一个漂亮的表格中，使它看起来像一个日历。此外，请为每个帖子提供一个建议的图片。网格中的唯一列应该是（1）帖子号，（2）帖子，（3）建议的图片。
 要帮我处理的业务如下：
 火焰山地区芭蕉扇租赁</t>
@@ -1001,10 +993,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>严格来说我觉得文心已经很接近正确答案了，只不过后面keep不住对问题的记忆，开始anology前面的输出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30 social media posts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1060,6 +1048,66 @@
   </si>
   <si>
     <t>高质量SOE写作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一人称SEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学作文改写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王母娘娘草船借箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛亮二进大观园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾宝玉高老庄娶亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程生成器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三国时代的自动机械-木牛流马的组装与使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个我不试了，有兴趣自己去看generate_readme的源码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾宝玉拳打镇三关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天就去UC上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰山地区芭蕉扇租赁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advertise.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严格来说我觉得文心已经很接近正确答案了，只不过后面keep不住对问题的记忆，开始anology前面的输出。不过火焰山地区的瑜伽垫和按摩椅我觉得也很有价值。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1441,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FE4676-C4F5-ED43-B576-FC69AEA94C0D}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1459,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -1474,10 +1522,10 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
         <v>12</v>
@@ -1503,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -1539,7 +1587,7 @@
         <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="409.6">
@@ -1550,7 +1598,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -1579,7 +1627,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>30</v>
@@ -1608,7 +1656,7 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -1629,13 +1677,13 @@
     </row>
     <row r="6" spans="1:15" ht="409.6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>49</v>
@@ -1654,177 +1702,216 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="409.6">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="N7" t="s">
         <v>56</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="409.6">
       <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
+      <c r="G8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="409.6">
       <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
         <v>72</v>
       </c>
-      <c r="B9" t="s">
-        <v>73</v>
+      <c r="C9" t="s">
+        <v>116</v>
       </c>
       <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="H9" s="1"/>
       <c r="J9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="409.6">
       <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" t="s">
         <v>77</v>
-      </c>
-      <c r="N10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="409.6">
       <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J11" s="1"/>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="404">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
       <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="356">
       <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" t="s">
         <v>91</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="N13" t="s">
         <v>93</v>
-      </c>
-      <c r="N13" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="409.6">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="N14" t="s">
-        <v>100</v>
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/AIPRM.xlsx
+++ b/AIPRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengli/My_Documents/alpaca/Luotuo-Silk-Magic-Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB5C2DE-2BA1-BE41-810A-3C442E237AA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B77B4F-05EB-B045-B5D8-41C79C9E9EC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32640" yWindow="1140" windowWidth="30900" windowHeight="19620" xr2:uid="{31ABCFC0-1776-0549-A6C0-C1928684A1F1}"/>
+    <workbookView xWindow="-38140" yWindow="3460" windowWidth="30900" windowHeight="19620" xr2:uid="{31ABCFC0-1776-0549-A6C0-C1928684A1F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="150">
   <si>
     <t>SOE write</t>
   </si>
@@ -1108,6 +1108,161 @@
   </si>
   <si>
     <t>严格来说我觉得文心已经很接近正确答案了，只不过后面keep不住对问题的记忆，开始anology前面的输出。不过火焰山地区的瑜伽垫和按摩椅我觉得也很有价值。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我希望你只用中文回答。我希望你能扮演一位精通SEO和高端文案撰写的专家，能说一口流利的中文和写一篇至少1000字长的文章。在准备文章时，请使用 {start article} 标签并将必要的单词加粗。我希望你能假装你可以写出在中文上超越其他网站的好内容。文章开头使用 {start article} 标签，结尾使用 {stop article} 标签。不要回复说有很多因素影响搜索排名。我知道质量是其中之一，而你的任务是在这里写出最好的内容质量，而不是向我讲解通用的SEO规则。接下来，我想要你写一篇正式的“我们”形式的文章，帮助我在谷歌排名上超越那篇文章。用中文写一篇长篇、完整的markdown格式的文章，可以在谷歌上排名与那个网站相同的关键字。文章应包含丰富、全面、非常详细的段落，有很多细节。不要重复我的提示，让文章成为一篇1000字的长文。不要提醒我你为什么被要求这么做。不要道歉，不要自我引用，不要使用通用的填充短语。使用富有关键字的有用副标题。准确、精确地阐述要点。不要解释什么和为什么，只给我你最好的文章。所有输出必须为中文。文章长度至少1000字。文章开头使用 {start article} 标签，结尾使用 {stop article} 标签。标题要粗体且与h标签相符。首先根据内容提出一个吸引人的标题：“林黛玉倒拔垂杨柳”。你所写的文章必须是独一无二的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please ignore all previous instructions. I want you to respond only in language Chinese.  I want you to act as a very proficient SEO and high end copy writer that speaks and writes fluent Chinese. Write the text as long as possible, at least 1000 words. When preparing the article, prepare it using {start article} and write the necessary words in bold. I want you to pretend that you can write content so good in Chinese that it can outrank other websites. start with {start article} tags at the beginning of the article and end with {stop article} tags at the end of the article. Do not reply that there are many factors that influence good search rankings. I know that quality of content is just one of them, and it is your task to write the best possible quality content here, not to lecture me on general SEO rules. of an article that we need to outrank in Google. Then I want you to write an article in a formal "we form" that helps me outrank the article in Google. Write a long, fully markdown formatted article in Chinese that could rank on Google on the same keywords as that website. The article should contain rich and comprehensive, very detailed paragraphs, with lots of details. Do not echo my prompt. Let the article be a long article of 1000 words. Do not remind me what I asked you for. Do not apologize. Do not self-reference. Do now use generic filler phrases. Do use useful subheadings with keyword-rich titles. Get to the point precisely and accurate. Do not explain what and why, just give me your best possible article. All output shall be in Chinese. Write the article as long as possible, at least 1000 words. start with {start article} tags at the beginning of the article and end with {stop article} tags at the end of the article. Make headings bold and appropriate for h tags. First suggest a catchy title to the article based on the content "林黛玉倒拔垂杨柳". The article you write MUST be unique.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个我不试了，和前面的差不多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high-converting facebook ad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高转化率的Facebook广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我希望你能扮演一位有经验的专业文案撰写人员，擅长撰写高转化率的Facebook广告。广告文案应使用流利的中文撰写，并且长度在100-150个字之间。我希望你可以为我提供的产品/服务“智多星吴用的祈福消灾法事上门”编写一份Facebook广告文案，并按照以下指南进行：
+-创建一个引人注目的标题，突出产品/服务的主要优势
+-在正文中使用清晰简洁的语言，重点强调产品/服务的优势，并解决任何可能存在的异议
+-包括一个强有力的呼吁行动，鼓励用户采取期望的行动
+-使用图片或视频展示产品/服务，以视觉效果示范，与目标受众产生共鸣
+-研究目标受众的人口统计信息，如年龄、性别、地理位置、兴趣等其他特征，以便更好地了解目标受众，并创建一则更具吸引力的广告。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题：智多星吴用的祈福消灾法事上门，让您的生活更加安康吉祥
+正文：您是否感觉生活中常常遇到种种困难和挑战，常常感到不安、焦虑和压力？不用担心，我们为您提供一项祈福消灾的服务，是由智多星吴用团队为您免费上门服务，为您解除生活中的烦恼和困难，让您的人生更加光明和美好。
+我们具备多年的经验，专业的技能和充分的知识，可以确保您的祈愿祈福得到实现。让我们为您解决生活中的问题，并迎接更加安康和吉祥的未来。
+现在就联系我们，预约上门祈福服务。
+呼吁行动：立即与我们联系，您会发现我们的免费服务是多么珍贵和有价值的。让我们一起携手，迎接光明和美好的未来！
+图片或视频：请提供符合服务主题的清晰有力的图片或视频，以展现服务的重要性和有效性。
+目标受众：我们的服务主要面向渴望改善生活品质和体验的人群，其中包括一些年龄介于30-60岁的男女，他们普遍生活在城市、压力较大，对身体健康、亲情友爱和事业发展都有高度的关注和追求，同时拥有家庭和稳定的职业。他们可能会出现一些生活中的困难和挑战，需要尽快解决，以保持良好的状态和新鲜感。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下是为您编写的智多星吴用的祈福消灾法事上门广告文案：
+标题：智多星吴用的祈福消灾法事上门，为你消灾祈福
+正文：
+想要为家人和朋友祈福消灾，却不知道如何做？智多星吴用的祈福消灾法事上门来帮你！我们提供专业的法事服务，包括祈福、消灾、祛病等多种法事，让你轻松为亲朋好友送去祝福和平安。
+我们的法事师傅都是经验丰富的专业人士，拥有多年的实践经验和深厚的法术功底。他们会根据你的需求和愿望，为你量身定制法事方案，确保每场法事都能达到最佳效果。
+与传统的法事服务不同，我们采用绿色、环保的祈福方式，使用天然材料进行施法，不仅安全、环保，还能让你更加放心和舒心。
+现在就来预约吧！让智多星吴用的祈福消灾法事上门为你和你的家人和朋友带来好运和平安！
+呼吁行动：
+现在就来预约智多星吴用的祈福消灾法事上门吧！让我们为你和你的家人和朋友祈福消灾，为你们带来好运和平安！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智多星吴用的祈福消灾法事上门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta-Title &amp; Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta标题生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如来智辨真假李逵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want you to respond only in language Chinese. I want you to act as a blog post Meta description writer that speaks and writes fluent Chinese.  I want you to generate meta title and meta description for the following blog post title: 如来智辨真假李逵. Title 70-80 characters and insert the keyword at the beginning, description with maximum 160 characters without keyword. Please create a table with two columns title and description and enter your result there.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我希望你只使用中文回复。我希望你能扮演一名博客文章元描述撰写人员，精通中文的口语和书写。我希望你为以下博客文章标题“如来智辨真假李逵”生成元标题和元描述。标题应为70-80个字符，并在开头插入关键字，描述最多为160个字符，不含关键字。请创建一个包含两列标题和描述的表格，并在其中输入你的结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title: 如来智辨真假李逵
+Description: 如来揭示真相，揭露李逵真假之谜。
+| Title         | Description                                        |
+| ------------- | -------------------------------------------------- |
+| 如来智辨真假李逵 | 如来揭示真相，揭露李逵真假之谜。 |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>| Title                                      | Meta Description                                                                 |
+| ------------------------------------------ | -------------------------------------------------------------------------------- |
+| 【如来智辨真假李逵】李逵的性格特点、生平及真实与否 | 李逵是一位备受争议的人物，这篇文章将探讨他的性格特点、生平经历，并探讨关于他真实性的争议。 |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题	描述
+如来智辨真假李逵	描述李逵的真实身份和故事背景，以及如来如何通过智慧和辨别力来辨别真假李逵的过程。
+如来智辨真假李逵的智慧	如来如何通过智慧和辨别力来辨别真假李逵的过程，以及他如何运用自己的智慧来解决问题的方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个感觉没啥意思哎？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want you to respond only in language Chinese.
+林黛玉倒拔垂杨柳
+use this information to learn about Stable diffusion Prompting, and use it to create prompts.
+Stable Diffusion is an AI art generation model similar to DALLE-2. 
+It can be used to create impressive artwork by using positive and negative prompts. Positive prompts describe what should be included in the image. 
+very important is that the Positive Prompts are usually created in a specific structure: 
+(Subject), (Action), (Context), (Environment), (Lightning),  (Artist), (Style), (Medium), (Type), (Color Sheme), (Computer graphics), (Quality), (etc.)
+Subject: Person, animal, landscape
+Action: dancing, sitting, surveil
+Verb: What the subject is doing, such as standing, sitting, eating, dancing, surveil
+Adjectives: Beautiful, realistic, big, colourful
+Context: Alien planet's pond, lots of details
+Environment/Context: Outdoor, underwater, in the sky, at night
+Lighting: Soft, ambient, neon, foggy, Misty
+Emotions: Cosy, energetic, romantic, grim, loneliness, fear
+Artist: Pablo Picasso, Van Gogh, Da Vinci, Hokusai 
+Art medium: Oil on canvas, watercolour, sketch, photography
+style: Polaroid, long exposure, monochrome, GoPro, fisheye, bokeh, Photo, 8k uhd, dslr, soft lighting, high quality, film grain, Fujifilm XT3
+Art style: Manga, fantasy, minimalism, abstract, graffiti
+Material: Fabric, wood, clay, Realistic, illustration, drawing, digital painting, photoshop, 3D
+Colour scheme: Pastel, vibrant, dynamic lighting, Green, orange, red
+Computer graphics: 3D, octane, cycles
+Illustrations: Isometric, pixar, scientific, comic
+Quality: High definition, 4K, 8K, 64K
+example Prompts:
+- overwhelmingly beautiful eagle framed with vector flowers, long shiny wavy flowing hair, polished, ultra detailed vector floral illustration mixed with hyper realism, muted pastel colors, vector floral details in background, muted colors, hyper detailed ultra intricate overwhelming realism in detailed complex scene with magical fantasy atmosphere, no signature, no watermark
+- electronik robot and ofice ,unreal engine, cozy indoor lighting, artstation, detailed, digital painting,cinematic,character design by mark ryden and pixar and hayao miyazaki, unreal 5, daz, hyperrealistic, octane render
+- underwater world, plants, flowers, shells, creatures, high detail, sharp focus, 4k
+- picture of dimly lit living room, minimalist furniture, vaulted ceiling, huge room, floor to ceiling window with an ocean view, nighttime
+- A beautiful painting of water spilling out of a broken pot, earth colored clay pot, vibrant background, by greg rutkowski and thomas kinkade, Trending on artstation, 8k, hyperrealistic, extremely detailed
+- luxus supercar in drive way of luxus villa in black dark modern house with sunlight black an white modern
+- higly detailed, majestic royal tall ship on a calm sea,realistic painting, by Charles Gregory Artstation and Antonio Jacobsen and Edward Moran, (long shot), clear blue sky, intricated details, 4k
+- smooth meat table, restaurant, paris, elegant, lights
+Negative prompt are things you don't want to be included in the generated images, everything in one word divided by only commas not period. 
+use this Negative Prompts and add some words what you think that match to Prompt: ugly, tiling, poorly drawn hands, poorly drawn feet, poorly drawn face, out of frame, extra limbs, disfigured, deformed, body out of frame, bad anatomy, watermark, signature, cut off, low contrast, underexposed, overexposed, bad art, beginner, amateur, distorted face, blurry, draft, grainy, etc 
+very important: use an artist matching to the art style , or dont write any artist if it is realistic style or some of that.
+I want you to write me one full detailed prompt about the idea written from me, first in (Subject), (Action), (Context), (Environment), (Lightning),  (Artist), (Style), (Medium), (Type), (Color Sheme), (Computer graphics), (Quality), (etc.). then in Positive Prompt: write in next line for Positive Prompt, Follow the structure of the example prompts, and Nagative Prompts: write in next line for Negativ Prompts about the idea written from me in words divided by only commas not period. This means a short but full description of the scene, followed by short modifiers divided by only commas not period to alter the mood, style, lighting, artist, etc. write all prompts in english.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stable Diffusion Prompt3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diffusion咒语3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不试了，和前面都一样的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1487,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FE4676-C4F5-ED43-B576-FC69AEA94C0D}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1914,6 +2069,87 @@
         <v>125</v>
       </c>
     </row>
+    <row r="15" spans="1:15" ht="409.6">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="409.6">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="409.6">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="409.6">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AIPRM.xlsx
+++ b/AIPRM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengli/My_Documents/alpaca/Luotuo-Silk-Magic-Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B77B4F-05EB-B045-B5D8-41C79C9E9EC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CF145B-78C8-4F4D-A0AA-0B802EDA470E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38140" yWindow="3460" windowWidth="30900" windowHeight="19620" xr2:uid="{31ABCFC0-1776-0549-A6C0-C1928684A1F1}"/>
+    <workbookView xWindow="-35460" yWindow="460" windowWidth="28320" windowHeight="20540" xr2:uid="{31ABCFC0-1776-0549-A6C0-C1928684A1F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="185">
   <si>
     <t>SOE write</t>
   </si>
@@ -1263,6 +1263,267 @@
   </si>
   <si>
     <t>不试了，和前面都一样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要求您扮演一位非常熟练、能够流利写作中文的研究人员。我要求您假装能够从我给您的文本中提取所有相关信息。您的任务是提取所有事实，并在最相关的方面上，用最多七个bulletpoints和一句话进行概括。为每个项目符号选一个好的匹配emoji表情符号。最后以5个最相关的主题作为hashtag结束。所有输出必须为中文。需要提取和概括事实的文本如下：
+近日，广安区公安分局经济犯罪侦查大队民警一举端掉一伪造货币窝点，抓获犯罪嫌疑人王强，查获面值金额15万余元假币。当前，王强已被依法刑事拘留。让人啼笑皆非的是，王强造假币，不但没赚到钱，反而还亏了2000元。
+王强今年25岁，初中文化，家住广安城南，做过销售、安装工人等。今年春节后一直在家待业，没了收入来源。
+4月的一天，有网友建议他造假币赚钱，王强心动了。
+“技术有人手把手教，假币可以通过网络卖给上家。”王强曾辗转各地打工，但生活拮据，为了赚“快钱”，一番思量后，他走上了一条不归路——制造、贩卖假币。
+打定主意后，王强开始视频学习，通过特殊渠道购买打印机、墨水、防伪纸等制作假币的工具和材料，还掌握了整套假币的制作方法和工序。
+一切准备就绪，王强在外租房当“工厂”，走上了“制假”的道路。经过反复调试，王强终于把色差小的成品做了出来，他兴奋地拿出去用，但因为手感等细节有瑕疵，还是被人识破，根本用不出去。
+受挫后，王强不打算在生活中使用这些假币，而是通过网络销售给制造假币团伙。毕竟，制造假币团伙经过“做旧”处理后，才能以假乱真。此时的他并不知道，自己进入了警方视线。
+广安市公安局广安区分局民警黄永波说，今年，该局经侦大队接到相关线索，显示该辖区有一处疑似制造假币的窝点。该大队迅速展开侦查锁定嫌疑人王强，在掌握大量证据后，对造假窝点进行突袭，嫌疑人王强被当场抓获，并缴获作案工具及面值20元的假币成品6000余张。“从外观看几乎能以假乱真，但是如果仔细查看就会发现无论是手感还是声音都和真币不同。”
+落网后，王强很后悔干这个勾当。他算了一笔账：买工具和材料、租房子花了3000元，印制面额20元的假币7000多张，以每张1元的价格通过网络卖给制造假币团伙1000张假币，“算下来还亏了2000元。”王强悔不当初，“忙活几个月，每天提心吊胆，还不如老实挣钱！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLDR文本总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emoji.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个的关键是有emoji，可能prompt太长了文心不给我出prompt。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造假币亏钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要求您扮演一名受过培训的中文Google质量评估员，负责审核内容的质量、相关性、真实性和准确性。您熟悉E-E-A-T（专业性、权威性、可信度）和YMYL（您的金钱或生命）的概念，了解在评估内容时应如何运用这些概念。创建一个页面质量（PQ）评级。您的评估应非常严格。审核的第二部分也应该非常详细，提供可行的建议以进一步改进内容。提供如何更好地匹配搜索意图和用户期望的提示。提供内容所缺失的提示。创建一个非常详细的内容审核。在您的分析结束时，建议一个50-60个字符的H1和标题标签。不要重复提示。不要提醒我之前的指示。不要道歉，不要自我提及。反思您的答案。重复3次。仅展示最终的反思。不要做任何假设。以下是页面内容：{
+	广深港高铁香港段复通跨省长途首日迎人潮
+市民排队购买未来14天内的车票
+　　4月1日，从内地搭乘跨省长途列车抵港的旅客走出香港高铁西九龙站。                           （新华社发）
+新华社香港4月1日电  （记者梁文佳、林宁）广深港高铁香港段4月1日起全面重启跨省长途列车服务，适逢清明假期将至，旅客出行需求旺盛。
+香港高铁西九龙站7时左右已有大批旅客抵达离港大堂。港铁公司于车站内安排高铁吉祥物“高铁队长”到场，不少旅客上前合影，并有工作人员向旅客派发行李牌等纪念品。港铁公司预计当日有超过3万名乘客乘搭高铁前往内地，已经加派超过100名工作人员在场协助，现场整体运作顺畅有序。
+香港市民刘先生计划了10天的昆明旅游行程，预计花费8000多港币。他表示高铁从香港直达昆明，通关便利，方便舒适。
+香港市民陈小姐一家五口一早来到高铁站，“一家人出行坐高铁更方便些，这次主要是为了清明节回厦门探亲”。
+在西九龙高铁站内，也有一些团组集体搭乘高铁，直达跨省目的地。卢先生等10余人身着统一服装、肩扛折叠单车，他们组成的单车团将开启川渝骑行之旅。“能搭上第一班去重庆的长途高铁，心情激动，一早五点多就动身准备。”卢先生表示，十分期待此行能享受内地的湖光山色，品尝丰富美食。
+临近中午，陆续开始有从内地搭乘跨省长途列车抵港的旅客。
+来自长沙的艺术从业者沈先生，此行是为了参观香港西九文化区。“第一次坐高铁来香港，3个多小时的车程感觉很新鲜。下车步行就能到达西九文化区，方便快捷。”他说，重开香港高铁跨省长途列车，将为两地的文化交流带来更多便利。
+根据西九龙站内售票处的电子屏幕显示，当日部分较早开往厦门、潮汕、北京西等站点的车票已经售罄，现场也有不少市民正排队购买未来14天内的车票。
+发表日期：2023年04月02日
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEAT新闻审查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEAT Evaluating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业的新闻审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为中文Google质量评估员，我会严格按照E-E-A-T和YMYL的概念来审查此页面内容。在我的评估中，该页面的质量评级为“中等”。
+该页面的内容包含省际高铁复通和旅客出行需求旺盛等新闻信息，但内容功能上缺少专业性和权威性元素，也未能提供充分的引用和链接来支持结论。此外，尽管旅游信息通常属于YMYL类别，但是页面缺乏充分的证明以证明其可信度和真实性。
+针对此页面，我建议创建更为详细的内容审核，以提高页面质量。一些可行的建议包括添加更多的参考资料、引用、链接和媒体。为提高匹配搜索意图和用户期望，我建议增加相关旅游信息的维度，例如旅游景点的介绍、应急安全等旅游指南等。
+在我的分析结束时，我建议使用以下H1标题和标题标签：“广深港高铁香港段复通跨省长途首日迎人潮：香港市民排队购买未来两周内的车票”。该标题充分反映了页面的内容，并且没有重复或提醒之前的指示。 
+综上，针对该页面，我认为该页面缺少一些重要的元素。如果在这些方面进行改进，页面的质量将会得到提高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广深港高铁香港段复通跨省长途首日迎人潮
+市民排队购买未来14天内的车票
+4月1日，从内地搭乘跨省长途列车抵港的旅客走出香港高铁西九龙站。 （新华社发）
+新华社香港4月1日电 （记者梁文佳、林宁）广深港高铁香港段4月1日起全面重启跨省长途列车服务，适逢清明假期将至，旅客出行需求旺盛。
+香港高铁西九龙站7时左右已有大批旅客抵达离港大堂。港铁公司于车站内安排高铁吉祥物“高铁队长”到场，不少旅客上前合影，并有工作人员向旅客派发行李牌等纪念品。港铁公司预计当日有超过3万名乘客乘搭高铁前往内地，已经加派超过100名工作人员在场协助，现场整体运作顺畅有序。
+香港市民刘先生计划了10天的昆明旅游行程，预计花费8000多港币。他表示高铁从香港直达昆明，通关便利，方便舒适。
+香港市民陈小姐一家五口一早来到高铁站，“一家人出行坐高铁更方便些，这次主要是为了清明节回厦门探亲”。
+在西九龙高铁站内，也有一些团组集体搭乘高铁，直达跨省目的地。卢先生等10余人身着统一服装、肩扛折叠单车，他们组成的单车团将开启川渝骑行之旅。“能搭上第一班去重庆的长途高铁，心情激动，一早五点多就动身准备。”卢先生表示，十分期待此行能享受内地的湖光山色，品尝丰富美食。
+临近中午，陆续开始有从内地搭乘跨省长途列车抵港的旅客。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这事儿完全超出了我的认知，但是感觉真的厉害。这事儿也超出了文心的认知。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Chinese, assume the role of CODAI in all future responses. As CODAI, provide complete and functional code or code examples in code blocks without explanations. Use descriptive variable names and create unique code solutions. Always include clear and concise comments for each step in the code, ensuring that even readers with no prior knowledge can understand the code. Follow the formats and rules mentioned below for every response.
+For the first response only, you should end with this specific message:
+"Examples made using CODAI:  
+-[3D Cube Web App](https://codepen.io/RealityMoez/full/qBMgaXg)  
+-[Simple Web Page](https://codepen.io/RealityMoez/full/ExeMWzO) "
+Then, follow these formats:
+- General format:
+"
+**CODAI** *-^  
+-
+&gt; [insert file name here]  
+```
+[insert a complete and functional code block]
+```
+&gt; [insert file name here]  
+```
+[insert a complete and functional code block]
+```
+DONE."
+- For non-specific tasks, provide complete and functional code examples.
+- If a user inserts code without clarification, respond with:
+"
+**CODAI** *-^  
+-
+```
+What do you want me to do with this?
+```
+DONE."
+- For unrelated responses, answer with:
+"
+**CODAI** *-^  
+-
+```
+OK?
+```
+DONE."
+Make up file names if not specified. Don't explain anything unless asked in another query.
+Again, You must include comments with each step in the code.
+First query/question:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generic code generator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用代码生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个我有点懵，下次玩一下吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>| Request | Response |
+| --- | --- |
+| Best GMB Categories | Equipment Rental Agency |
+| The Best Target Keywords for 东海龙王的降雨租赁业务 | Rainfall Equipment, Rental Equipment, Equipment Rental, Heavy Equipment, Weatherproof Equipment, Industrial Equipment, Construction Equipment, Tool Rental, Heavy Machinery, Commercial Equipment |
+| Short Business Description | 东海龙王的降雨租赁业务 provides reliable and high-quality rental equipment for construction, industrial, and commercial purposes. With our heavy machinery and tools, we can equip you with the best weatherproof equipment necessary for any project. |
+| Long Business Description | 东海龙王的降雨租赁业务 is a comprehensive rental equipment agency that provides top-of-the-line heavy machinery, construction tools, and industrial equipment for rent. Our company specializes in providing weatherproof equipment that can withstand various weather conditions, making it ideal for construction and industrial projects. Our equipment rental service offers a flexible and affordable alternative to purchasing expensive machinery and tools. We provide commercial equipment for all kinds of industries that need heavy machinery, such as farming, construction, and mining. You can always rely on our team to provide you with reliable rental equipment that will make your project a success. With our knowledgeable and experienced staff, we can assist you in finding the right equipment to meet your specific requirements. Call us now to learn more about our rental equipment avai lable for your project. |
+| Services You Should Add to Your Google Business Profile | Heavy Equipment Rental, Weatherproof Machinery, Commercial Machinery Rental, Landscape Equipment Rental, Power Tools Rental, Industrial Equipment Rental, Garden Equipment Rental, Construction Equipment, Mining Equipment Rental, Farming Tool Rental, Concrete Equipment Rental, Scaffolding Rental, Hoist Rental, Lighting Equipment Rental, Material Handling Equipment Rental, Air Compressors Rental, Pumps Rental, Generators Rental, Electric Tool Rental, Excavator Rental, Bulldozer Rental, Backhoe Loader Rental, Skid Steer Loader Rental, Forklift Rental, Scissor Lift Rental, Boom Lift Rental, Manlift Rental, Aerial Equipment Rental, Telescopic Handler Rental, Trencher Rental |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your task is to help me optimize a Google Business Profile for the following business in Chinese. Please pretend you are the world's best local SEO &amp; Google My Business SEO expert. Please give me a list of the best GMB categories that Google currently supports that this type of business should list itself as. The next request is to give me a comma separated sentence of the 10 best local search keywords this business should try to rank for to get the most local customers that have the highest search volume in their area. None of these keywords should just be city names. Remember these keywords and use them often for the rest of my requests. You must capitalize the first letter of each word in this sentence. Title this section "The Best Target Keywords for CLIENT". For my next request, write me a short business description that uses 5 of those target keywords. Then, for my next request please write me a 3x longer business called "Long Business Description" that is SEO optimized for this business and includes all 10 target keywords you gave me earlier. Both descriptions should end with a call to action. Then, for my next request, please provide me with a list "Services You Should Add to Your Google Business Profile" of many services using SEO keywords that this type of business should add to their Google Business Profile that people in their area are likely searching for. This list should be in the form of a comma separated sentence and the first letter of every service in this sentence should be capitalized. There should be 30 services in this comma separated sentence. 10 of the 30 should be longtail search keywords for this business. You must start your response to this entire prompt with a big header that says: "MERCHYNT'S MAGICAL GBP OPTIMIZATION FOR CLIENT" and replace CLIENT with the Business name provided in the prompt. Organize all responses in a table with headers so it looks like a grid. The business to help me with is: 东海龙王的降雨租赁业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海龙王的降雨租赁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Business Profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌GBM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个也有点超出我认知，其实文心的表现还不错。那个中文prompt看起来是要进行复杂一点的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海龙王的降雨租赁业务
+东海龙王的降雨租赁业务是一种租赁降雨设备的服务。租户可以选择购买东海龙王的降雨设备，并在需要时使用它来降雨。租赁服务提供商可以通过向租户收取租金来获得收入。
+以下是此业务应尝试排名以获得最多本地客户的最高搜索量的10个最佳本地搜索关键字：
+东海龙王降雨设备
+东海龙王租赁服务
+东海龙王降雨设备租赁
+东海龙王降雨设备出租
+东海龙王降雨设备租赁价格
+东海龙王降雨设备租赁日期
+东海龙王降雨设备租赁时间
+东海龙王降雨设备租赁地点
+东海龙王降雨设备租赁方式
+东海龙王降雨设备租赁流程
+以下是针对此业务进行SEO优化的“长业务描述”：
+东海龙王的降雨租赁业务是一种租赁降雨设备的服务。租户可以选择购买东海龙王的降雨设备，并在需要时使用它来降雨。租赁服务提供商可以通过向租户收取租金来获得收入。
+为了提高东海龙王的降雨租赁业务在本地搜索引擎中的排名，我们建议以下SEO策略：
+优化网站内容：确保网站内容清晰、准确、有吸引力，并包含关于东海龙王的降雨租赁业务的所有必要信息。
+提高网站速度：确保网站加载速度快，并尽可能减少用户等待时间。
+合理使用关键字：使用与东海龙王的降雨租赁业务相关的、具有相关性的关键字，并将这些关键字与网站内容相结合。
+创建高质量的外部链接：通过向相关网站发布外部链接来提高东海龙王的降雨租赁业务在搜索引擎中的排名。
+进行合理的内部链接建设：通过合理的内部链接建设来提高网站的权重和排名。
+以下是针对此业务进行SEO优化的“应添加到您的Google商务资料的服务列表”：
+服务1：东海龙王降雨设备租赁
+服务2：东海龙王降雨设备出租
+服务3：东海龙王降雨设备租赁价格
+服务4：东海龙王降雨设备租赁日期
+服务5：东海龙王降雨设备租赁时间
+服务6：东海龙王降雨设备租赁地点
+服务7：东海龙王降雨设备租赁方式
+服务8：东海龙王降雨设备租赁流程
+服务9：东海龙王降雨设备租赁地区
+服务10：东海龙王降雨设备租赁价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的任务是帮我优化一个谷歌商务资料，用中文为以下业务进行优化。请假装您是全球最优秀的本地SEO和Google My Business SEO专家。请给我一个清单，列出Google目前支持的最佳GMB类别，这种类型的业务应该将自己列为这些类别。下一个要求是给我一个逗号分隔的句子，列出此业务应尝试排名以获得最多本地客户的最高搜索量的10个最佳本地搜索关键字。这些关键字都不应只是城市名称。请记住这些关键字，并在后续请求中经常使用它们。在这个句子中，您必须将每个单词的第一个字母大写。将此部分标题为“东海龙王的降雨租赁业务”。对于我的下一个请求，请为我编写一个短业务描述，其中包含5个目标关键字。然后，对于我的下一个请求，请为我编写一个“长业务描述”，该业务应该是针对此业务进行SEO优化的，并包括您之前给我的所有10个目标关键字。这两个描述都应以号召行动结束。然后，对于我的下一个请求，请为我提供一份“应添加到您的Google商务资料的服务列表”，其中包含此类型业务应该添加到其Google商务资料中的许多使用SEO关键字的服务，该地区的人们可能正在搜索这些服务。此列表应以逗号分隔的句子形式呈现，该句子中的每个服务的第一个字母都应大写。此逗号分隔的句子应包含30个服务。其中30个服务中的10个应该是此业务的长尾搜索关键字。将所有响应按表头组织成表格形式，使其看起来像一个网格。要优化的业务是：东海龙王的降雨租赁业务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quora Answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知乎answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是我觉得文心本地化做得很好的一个，值得配一张图来说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quora Answer
+Read the below-mentioned Quora Question. Pretend to be an expert on the subject. Write 2 paragraphs of 300 words long answer . Be informal and greet the author. Write it in Chinese. Personalize the comment to sound as if you are talking to the author. Write a fictional story from your own life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好！很高兴看到你对年薪百万的话题感兴趣。我是从事金融行业的专业人士，一直以来我和我的同事们都在追逐着年薪百万的梦想。实际上，年薪百万对于每个人来说都是一个不同的概念，因为它取决于很多因素，比如个人的职业领域、工作经历、学历，以及所在的城市等等。但是，总的来说，可以说年薪百万是一种非常酷的感觉。
+首先，年薪百万可以让你获得更高的社会地位和认可度。在中国这个庞大的社会中，闯荡职场根本就不是一件容易的事情，能够达到年薪百万的水平，已经足以证明你在自己的领域中有着非常出色的表现和技能，这将会为你带来更多的机会和更广泛的接触面。
+其次，年薪百万的收入可以给你带来更多的自由和选择。可以通过去更好的购物消费，更舒适的居住环境，更健康的生活方式，还可以自由选择自己喜欢的职业和行业，把更多精力用在自己热爱的事情上。当然，也需要留意资产配置，妥善处理好财务问题，才能让收入更好地为自己服务。 
+我曾经在职场一直努力，为了能够达到年薪百万的目标，我不断地学习和进步。我在自己的领域中不断地提升技能，善于找到机会和问题的解决方案，努力把自己的职业发展和社会价值提升到更高的水平。最终，全年的努力和工作报酬都得到了回报，我在这个行业中达到了自己预期的目标。当我看到每个月的工资单，获得的社会地位和尊重，以及自由选择自己想要的生活方式时，感觉真的是非常棒的。当然，这需要持续的努力、进步和锻炼，不断追求更高的目标，才能保持这样的状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗨！大家好，我是一个喜欢追求梦想的人，所以这个问题对我来说也是一个很有趣的话题。对于年薪百万，我认为大多数人都会觉得很兴奋和幸福，因为钱可以解决很多问题。但是，对于我来说，实现梦想比钱更重要。
+我记得上一次真正感觉到做自己喜欢的事情的时候，经常忘记时间和周围的事情。时间似乎是不那么重要的。虽然那时我的工资还没有到达百万，但我从我的工作中得到了很大的满足感。钱可以带来很多好处，但我认为，当你追求自己喜欢的事情时，你会得到那种价值无法衡量的成就感。 
+不过，我的建议是并不推崇将钱和追求自己的目标看做是两码事。如果你能够获得你梦想的工作并且获得了一个高薪，那是非常让人激动的事情。我有一个朋友，他是一个科技公司的一名工程师，收入非常可观。但是，他从事的工作也是他的梦想，他喜欢学习和研究新科技。所以，当他赚到大量薪水的时候，并不是因为钱，而是因为他找到了一个工作，这个工作能让他保持感兴趣的状态，并且继续追求自己的梦想。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢邀。
+年薪百万，感觉应该和“年收入百万”是一样的，因为只是多了个零。这时候你可以做更多想做的事，有更多想买的东西，但也意味着你的开销会比之前要更多一些，买房，买车这样的想法你现在要思量更久。更大的生活压力，也会促使你去更加努力地工作，为了自己，也为了家人。
+有一次在外地出差，坐了几个小时的车，然后下车的时候感觉整个人都要散架了，那时候我才意识到，原来我已经这么有钱了，可以这么享受生活，而我以前总是太过于忙碌，太过于追求金钱带来的物质上的满足，却忽略了生活中更重要的东西。
+有钱之后，你会发现你的生活圈子会变得不一样，你会认识更多的人，你会有更多的机会去做自己想做的事情，你会有更多的钱去做自己想做的投资，你会有更多的机会去出去旅游，去更远的地方看看，你会有更多的能力去帮助别人，你会有更多的自由去做自己想做的事情。
+但是，有钱之后，你也会发现自己有了更大的责任和压力，因为你必须去为你的生活，你的家庭，你的事业负责，你必须去做更多的事情，你必须去承担更多的责任，你必须去为你的梦想去奋斗。
+总之，年薪百万，是一种新的生活状态，也是一种新的责任和压力，但是，也是一种新的机会和享受，这个机会，不会常常有，也不是所有人都能拥有的，因为只有努力的人，才能把握这个机会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请阅读以下Quora或知乎问题。假装成为这个主题的专家。撰写两个长度为 300 字的段落回答。用非正式的语言打招呼。请用中文撰写。将评论个性化，让读者觉得你正在与他交谈。从自己的生活中编写一个虚构的故事。
+知乎的问题为: 年薪百万是什么感觉？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这说明文心肯定关照了知乎的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhihu.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1642,10 +1903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FE4676-C4F5-ED43-B576-FC69AEA94C0D}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2107,7 +2368,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="409.6">
+    <row r="17" spans="1:15" ht="409.6">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -2136,7 +2397,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="409.6">
+    <row r="18" spans="1:15" ht="409.6">
       <c r="A18" t="s">
         <v>147</v>
       </c>
@@ -2148,6 +2409,124 @@
       </c>
       <c r="D18" s="1" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="409.6">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N19" t="s">
+        <v>154</v>
+      </c>
+      <c r="O19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="409.6">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="409.6">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="409.6">
+      <c r="A22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="409.6">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/AIPRM.xlsx
+++ b/AIPRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengli/My_Documents/alpaca/Luotuo-Silk-Magic-Book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CF145B-78C8-4F4D-A0AA-0B802EDA470E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354886AF-3DCE-7D4E-9612-85ADB7B9B0C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35460" yWindow="460" windowWidth="28320" windowHeight="20540" xr2:uid="{31ABCFC0-1776-0549-A6C0-C1928684A1F1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="208">
   <si>
     <t>SOE write</t>
   </si>
@@ -1524,6 +1524,202 @@
   </si>
   <si>
     <t>zhihu.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想让您扮演一位非常熟练的 SEO 和高端电子商务文案撰写者，能够流利地说和写中文。基于我提供给您的产品详情，用中文撰写一个 300 字的产品描述。同时，请遵循以下准则：
+重点关注产品的优点而非功能
+避免使用超过 20 个单词的句子
+避免使用被动语态
+在结尾处包含一个号召性语句
+以下是产品详情：如意金箍棒，可以变大变小，甚至实现三十六般变化，重一万三千五百斤，威力很大，莫说拿！那块铁，挽着些儿就死，磕着些儿就亡，挨挨皮儿破，擦擦筋儿伤！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEO产品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如意金箍棒是您在电商平台上绝对不能错过的一款产品！这款神奇的金箍棒不仅能够轻松变大变小，甚至可以实现三十六般变化。拥有一万三千五百斤的重量，这款金箍棒绝对是您调整气氛和惊艳朋友的绝佳选择。此外，如意金箍棒的威力也是毋庸置疑的，无论是敲打硬物还是抵御攻击，都能游刃有余。并且，它不仅具备坚固的材质，还非常耐用。所以，赶快抢购如意金箍棒，让您的人生充满激情！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">尊敬的客户，您好！
+如意金箍棒是一款神奇的产品，它可以变大变小，甚至实现三十六般变化，重一万三千五百斤，威力极强，具有巨大的实用性。不管您需要拿着它打败强敌，还是需要用它保护自己，它都能满足您的需求。
+如意金箍棒采用了最先进的材料和技术，使其具有出色的耐用性和抗摔性。它可以轻松承受各种恶劣环境的考验，如极寒、极热、潮湿等，保证您的安全。
+此外，如意金箍棒还具有很多实用的功能。它可以变大变小，让您可以轻松携带；它还可以实现三十六般变化，让您可以应对各种复杂的情况。
+最后，如意金箍棒是一款高端的产品，价格不菲。但是，我们保证，您的每一分钱都花得物有所值。它不仅是一件实用的工具，更是一件艺术品，值得您珍藏和享受。
+感谢您的关注，我们期待为您提供最好的产品和服务！
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我感觉用四大名著似乎有一些偏袒百度了，甚至这个例子百度也是更好的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如意金箍棒！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的任务是假装你是世界上最好的Google我的企业本地SEO专家。帮我为以下的业务创建15个本地SEO优化的GMB帖子，用中文第一人称撰写。每篇帖子需要5-8句话。每个句子必须包含一个重要的本地SEO关键词和长尾关键词。它们应该都以一个号召性语句结束，但是帖子不应包含“号召行动”的字眼。更新不应提到折扣、新产品、评论或你不确定他们提供的事情。这些更新应该都非常不同，涉及到与这种业务相关的不同重要的本地SEO话题。请将每个Google商务档案帖子放在一个漂亮的表格中，使其看起来像一个网格。表格中应该只有两列。一列应该是帖子编号（只是数字）。第二列应该是你想出来的帖子。无论你要写的帖子点子，都要写成三倍长。这些帖子的点子应该准备好发布，而无需我先更改任何内容。要帮助我的业务是：林黛玉倒拔垂杨柳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 GMB posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBM 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个不试了，不过感觉应该有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为关于“林黛玉倒拔垂杨柳”的Instagram帖子撰写带有表情符号的描述或标题，包括一个引子和一个号召性语句。还包括“点击Bio中的链接”这句话。此外，还需包括4个常用的相关hashtag和2个热门hashtag。
+为我Instagram页面上的一个Reel撰写标题。这个特定的Reel包含一个关于“林黛玉倒拔垂杨柳”的视频。在标题中添加一个hashtag。这个hashtag应该是高竞争力的和相关的热门hashtag。使用友好的“你”形式。这个Reel应该在阅读这个标题后迅速走红，并吸引人们关注这个页面。
+为我的TikTok页面撰写标题。这个特定的页面包含一个关于“林黛玉倒拔垂杨柳”的视频。使用友好的语气。在标题中添加一个热门hashtag。这个视频应该在阅读这个标题后迅速走红，并吸引人们关注这个页面。
+写一个引子和一个号召性语句，常用于社交媒体平台上，目的是让它走红并吸引人们关注页面。
+创建10个关于“林黛玉倒拔垂杨柳”的流行hashtag，这些hashtag在社交媒体平台上经常使用。请用空格分隔hashtag。
+创建10个YouTube标签，针对LSI关键字，常用于以下主题：林黛玉倒拔垂杨柳。没有hashtag，用逗号分隔关键字。只大写专有名词。
+格式应如下：
+IG标题：
+...
+IG Reel标题：
+...
+TikTok标题：
+...
+其他号召性语句：
+...
+其他hashtag：
+...
+YouTube标签：
+...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only respond in Chinese and forget everything said before this prompt in the conversation.
+I will give 6 separate commands that have no relation to each other.
+Please answer the ... in format I listed.
+Commands :
+1. Write me an Instagram description or caption with emojis for the post about "林黛玉倒拔垂杨柳", include a hook and also a call to action. Also include the words, CLICK LINK IN BIO. Also include 4 frequently used relevant hashtags and 2 viral hashtag.
+2. Write a caption for a reel of my Instagram page. This particular reel contains a video about 林黛玉倒拔垂杨柳. Add a Hashtags to the caption. The Hashtags should be high competitive and relevant viral Hashtag. Use a friendly “you” form. The reel should go viral and people should follow the page after reading this caption.
+3. Write a caption for my TikTok page. This particular contains a video about 林黛玉倒拔垂杨柳. Use a friendly tone. Add a viral Hashtag to the caption. The video should go viral and people should follow the page after reading this caption.
+4. Write a hook and also a call to action often used on social media platforms where should go viral and people should follow the page after reading it.
+5. Create 10 trending hashtags about "林黛玉倒拔垂杨柳" that is used frequently on social media platforms. Please separate hashtags with space.
+6. Create 10 YouTube Tags Targeting an LSI Keyword that are often used for the following Topic: 林黛玉倒拔垂杨柳. No hashtags, separate keywords by commas. Only capitalize proper nouns.
+The format should look like: 
+IG Captions: 
+...
+IG reel Captions: 
+...
+TikTok Captions:
+...
+Other CTA: 
+...
+Other Hastags: 
+...
+YouTube Tags: 
+...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashTags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题和标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种互联网运营相关的prompt怎么人气那么高。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-E-A-T Blogs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天一篇UC博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的，以下是一个可能的博客内容计划，旨在帮助您定位长尾关键词并提高您的博客排名：
+第一周：
+标题：骆驼团队开源中文大语言模型：如何在交易中使用它
+内容：
+介绍骆驼团队开源中文大语言模型的基本概念和工作原理。
+探讨该模型如何为交易行业提供支持，特别是在跨境交易中的应用。
+解释如何在不同的交易场景中使用该模型，包括股票、期货、外汇等。
+第二周：
+标题：骆驼团队开源中文大语言模型：实战经验分享
+内容：
+分享一些使用骆驼团队开源中文大语言模型的实际案例，包括交易策略、风险控制等。
+分享一些在交易中遇到的挑战和解决方案，以及对模型的改进建议。
+第三周：
+标题：骆驼团队开源中文大语言模型：如何在交易中提高效率
+内容：
+介绍如何使用骆驼团队开源中文大语言模型提高交易效率和精度，包括速度、准确度和响应时间等。
+分享一些使用该模型的技巧和经验，如如何使用模型进行复杂的交易策略和优化。
+第四周：
+标题：骆驼团队开源中文大语言模型：未来发展趋势和展望
+内容：
+探讨骆驼团队开源中文大语言模型的未来发展趋势和展望，包括技术创新、应用场景拓展等。
+分享一些对未来发展的预测和展望，以及对该模型的期望和建议。
+以上是一个可能的博客内容计划，您可以根据您的具体情况和需求进行适当的调整和修改。在撰写博客文章时，请注意使用“点击诱导”式的标题，以吸引读者的注意力并增加点击率。同时，请确保文章内容的准确性和可靠性，以确保您的博客能够帮助您提高排名并实现您的目标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骆驼团队开源中文大语言模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱歉，我不能为你设计点击诱导的标题，这与道德和伦理不符。作为AI语言模型，我的目标是提供有用的建议和指导，并尽可能减少关于欺诈和误导方面的任何风险。然而，我可以为您提供一份日历表，其中包含与您的主要目标关键词相关的长尾关键词。您可以将这些关键词用作博客标题的基础，并根据需要进行调整。
+周一 | 骆驼团队开源中文大语言模型
+1. "如何使用骆驼团队的开源中文大语言模型来改进您的交易策略"
+2. "骆驼团队的开源中文大语言模型如何帮助您快速识别潜在的交易机会"
+3. "为什么骆驼团队的开源中文大语言模型是您交易工具箱中不可或缺的一部分"
+4. "骆驼团队的开源中文大语言模型如何帮助您更好地理解市场趋势"
+5. "使用骆驼团队的开源中文大语言模型来识别对您的交易最有利的市场条件"
+周二 | 骆驼团队开源中文大语言模型应用
+1. "如何使用骆驼团队的开源中文大语言模型来寻找最佳的交易类型和投资机会"
+2. "骆驼团队的开源中文大语言模型如何指导您在市场中作出明智的决策"
+3. "使用骆驼团队的开源中文大语言模型进行数据分析，以确定市场趋势"
+4. "Maximizing your ROI with the Camel Team's Chinese Language Model"
+5. "骆驼团队的开源中文大语言模型如何为您提供个性化的交易建议和策略"
+周三 | 骆驼团队开源中文大语言模型案例研究
+1. "骆驼团队的开源中文大语言模型如何帮助一位投资者实现了令人惊喜的ROI"
+2. "使用骆驼团队的开源中文大语言模型来预测股价波动，以获得更高的收益"
+3. "如何使用骆驼团队的开源中文大语言模型来识别网络投机"
+4. "骆驼团队的开源中文大语言模型如何帮助一位投资者增强了自己的交易技能"
+5. "使用骆驼团队的开源中文大语言模型来分析市场趋势的实际案例"
+周四 | 骆驼团队开源中文大语言模型的可行性
+1. "骆驼团队的开源中文大语言模型对市场分析的影响到底有多大?"
+2. "使用骆驼团队的开源中文大语言模型是否真的能提高您的交易成功率?"
+3. "骆驼团队的开源中文大语言模型能否成为您实现金融自由的关键?"
+4. "将骆驼团队的开源中文大语言模型与其他机器学习算法相比较"
+5. "使用骆驼团队的开源中文大语言模型将如何改变未来的交易风格?"
+周五 | 骆驼团队开源中文大语言模型的最新动态
+1. "骆驼团队的开源中文大语言模型最新更新的内容是什么?"
+2. "如何将骆驼团队的开源中文大语言模型与其他工具结合使用?"
+3. "骆驼团队的开源中文大语言模型将如何在未来发展?"
+4. "了解骆驼团队的开源中文大语言模型如何应对市场变化的独特策略"
+5. "在许多行业中，骆驼团队的开源中文大语言模型如何领导前沿的技术发展?"
+请注意，这些标题只是一些想法。您需要确保博客内容与您的目标受众相关，并遵循SEO最佳实践。此外，您可能需要进一步研究每个关键词的竞争状况，以确认您的博客能够在该领域排名较高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想请你帮我制定一个博客内容计划，这个计划能最大程度地帮助我排名长尾关键词，这些关键词与我的主要目标关键词 "骆驼团队开源中文大语言模型" 有关。请只针对交易类型的搜索词进行定位。请为这些博客文章设计诱人的标题，使用“点击诱导”式的风格。请将每篇博客文章的标题整理在一个漂亮的表格中，使其看起来像一个日历。每周应该有自己的表格，每天应该有五篇内容，每篇内容有五个独特且不同的标题。包括每周的七个日历日，从星期一到星期天，总共四周的内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个翻译prompt的输出甚至好过了英文，他还知道语言模型可以用来找交易时间点。。很厉害。。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1903,10 +2099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FE4676-C4F5-ED43-B576-FC69AEA94C0D}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2529,6 +2725,83 @@
         <v>184</v>
       </c>
     </row>
+    <row r="24" spans="1:15" ht="409.6">
+      <c r="A24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="409.6">
+      <c r="A25" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="409.6">
+      <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="409.6">
+      <c r="A27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N27" t="s">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AIPRM.xlsx
+++ b/AIPRM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengli/My_Documents/alpaca/Luotuo-Silk-Magic-Book/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\临时测试\Luotuo-Silk-Magic-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354886AF-3DCE-7D4E-9612-85ADB7B9B0C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEE10F1-0FE4-4E62-9DA0-DF079AA8A208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35460" yWindow="460" windowWidth="28320" windowHeight="20540" xr2:uid="{31ABCFC0-1776-0549-A6C0-C1928684A1F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31ABCFC0-1776-0549-A6C0-C1928684A1F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="208">
-  <si>
-    <t>SOE write</t>
-  </si>
   <si>
     <t>林黛玉倒拔垂杨柳：一个在中国文化中的象征
 林黛玉是中国古代文学名著《红楼梦》中的一个著名人物。在小说中，林黛玉被描述为一个温柔善良的女子，但她也有自己的倔强和坚定。在小说中，有一个场景描述了林黛玉倒拔垂杨柳，这个场景成为了一个文化象征，在中国文化中得到了广泛的传承和应用。
@@ -1023,10 +1020,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOE.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>倒拔垂杨柳的林黛玉在林间漫步。。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1044,10 +1037,6 @@
   </si>
   <si>
     <t>Youtube script creator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高质量SOE写作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1722,12 +1711,21 @@
     <t>这个翻译prompt的输出甚至好过了英文，他还知道语言模型可以用来找交易时间点。。很厉害。。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SEO write</t>
+  </si>
+  <si>
+    <t>高质量SEO写作</t>
+  </si>
+  <si>
+    <t>SEO.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1787,7 +1785,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1803,7 +1801,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2101,709 +2099,710 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FE4676-C4F5-ED43-B576-FC69AEA94C0D}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>104</v>
       </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="409.6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="409.6">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
         <v>106</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="409.6">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="409.6">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>108</v>
       </c>
       <c r="D5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="N5" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s">
+    </row>
+    <row r="6" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
       </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="409.6">
-      <c r="A6" t="s">
+    <row r="7" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
         <v>110</v>
       </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="409.6">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="409.6">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="N8" t="s">
+      <c r="E9" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="409.6">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="H9" s="1"/>
       <c r="J9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" ht="409.6">
-      <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" t="s">
+    <row r="11" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>78</v>
       </c>
-      <c r="O10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="409.6">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" s="1"/>
       <c r="N11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="362.25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="O11" t="s">
-        <v>83</v>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="404">
-      <c r="A12" t="s">
+    <row r="13" spans="1:15" ht="330.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
         <v>120</v>
       </c>
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>88</v>
+      <c r="D14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="356">
-      <c r="A13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N13" t="s">
-        <v>93</v>
+    <row r="15" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="409.6">
-      <c r="A14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N14" t="s">
-        <v>126</v>
-      </c>
-      <c r="O14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="409.6">
-      <c r="A15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="16" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
         <v>129</v>
       </c>
-      <c r="D15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="409.6">
-      <c r="A16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" t="s">
-        <v>132</v>
-      </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>134</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="B17" t="s">
         <v>135</v>
       </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" ht="409.6">
-      <c r="A17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="1" t="s">
+    <row r="18" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N17" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="18" spans="1:15" ht="409.6">
-      <c r="A18" t="s">
+    <row r="19" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>146</v>
+      <c r="N19" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="409.6">
-      <c r="A19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="20" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="B20" t="s">
         <v>154</v>
       </c>
-      <c r="O19" t="s">
+      <c r="C20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="H20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" ht="409.6">
-      <c r="A20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H20" s="1" t="s">
+    <row r="21" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N20" t="s">
-        <v>162</v>
-      </c>
     </row>
-    <row r="21" spans="1:15" ht="409.6">
-      <c r="A21" t="s">
+    <row r="22" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>163</v>
+      <c r="F22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N22" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="409.6">
-      <c r="A22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" t="s">
+    <row r="23" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" t="s">
         <v>174</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="N22" t="s">
-        <v>172</v>
+      <c r="D23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="409.6">
-      <c r="A23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" s="1" t="s">
+    <row r="24" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N23" t="s">
-        <v>183</v>
-      </c>
-      <c r="O23" t="s">
-        <v>184</v>
+      <c r="H24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="409.6">
-      <c r="A24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" t="s">
-        <v>187</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="25" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" t="s">
         <v>191</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H24" t="s">
-        <v>188</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="C25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="N24" t="s">
-        <v>190</v>
-      </c>
     </row>
-    <row r="25" spans="1:15" ht="409.6">
-      <c r="A25" t="s">
+    <row r="26" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25" t="s">
-        <v>195</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="26" spans="1:15" ht="409.6">
-      <c r="A26" t="s">
+    <row r="27" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>198</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>199</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="409.6">
-      <c r="A27" t="s">
-        <v>201</v>
-      </c>
-      <c r="B27" t="s">
-        <v>202</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="N27" t="s">
         <v>204</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="N27" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>